--- a/031 Baula/Puskesmas 031 Baula.xlsx
+++ b/031 Baula/Puskesmas 031 Baula.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda-blanko-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B4CE7C-9A32-4534-A9E7-7BF0DC817DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7556835-F987-4FD0-B2BF-076781331F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Bab 4" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -165,7 +165,10 @@
     <t>Sumber/Source:</t>
   </si>
   <si>
-    <t>Tabel 4.2.3</t>
+    <t>Kecamatan {kec}</t>
+  </si>
+  <si>
+    <t>Tabel 4.2.5</t>
   </si>
   <si>
     <r>
@@ -180,7 +183,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.4.</t>
+      <t xml:space="preserve"> 4.2.6.</t>
     </r>
   </si>
   <si>
@@ -196,41 +199,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.5.</t>
+      <t xml:space="preserve"> 4.2.7.</t>
     </r>
   </si>
   <si>
-    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2020</t>
-  </si>
-  <si>
-    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t>Kecamatan {kec}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan Baula. 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan Baula, 2020</t>
+    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2021</t>
+  </si>
+  <si>
+    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan Baula. 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan Baula, 2021</t>
   </si>
   <si>
     <r>
@@ -245,11 +245,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.4.</t>
+      <t xml:space="preserve"> 4.2.6.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan Baula, 2020</t>
+    <t xml:space="preserve">Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan Baula, 2021</t>
   </si>
   <si>
     <r>
@@ -264,23 +264,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.5.</t>
+      <t xml:space="preserve"> 4.2.7.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan Baula, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Medical Personnel by Kelurahan/ Village in Baula Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Immunized Babies by Types of Immunization and Kelurahan/Village Baula Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in Baula Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in Baula Subdistrict, 2020</t>
+    <t xml:space="preserve">Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan Baula, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Medical Personnel by Kelurahan/ Village in Baula Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Immunized Babies by Types of Immunization and Kelurahan/Village Baula Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in Baula Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in Baula Subdistrict, 2021</t>
   </si>
   <si>
     <t xml:space="preserve">001 LONGORI</t>
@@ -901,9 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -940,7 +938,7 @@
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
       <c r="H1" t="s" s="22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s" s="36">
         <v>44</v>

--- a/031 Baula/Puskesmas 031 Baula.xlsx
+++ b/031 Baula/Puskesmas 031 Baula.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda-blanko-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\kcda-blanko-generator\template\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7556835-F987-4FD0-B2BF-076781331F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481223D-E29C-4010-B15F-FEE266DD868B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Bab 4" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -32,29 +32,6 @@
   </si>
   <si>
     <t>(1)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tabel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 4.2.2</t>
-    </r>
   </si>
   <si>
     <t>Dokter</t>
@@ -168,7 +145,28 @@
     <t>Kecamatan {kec}</t>
   </si>
   <si>
-    <t>Tabel 4.2.5</t>
+    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2022</t>
+  </si>
+  <si>
+    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2022</t>
+  </si>
+  <si>
+    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2022</t>
+  </si>
+  <si>
+    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2022</t>
+  </si>
+  <si>
+    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2022</t>
+  </si>
+  <si>
+    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2022</t>
+  </si>
+  <si>
+    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2022</t>
+  </si>
+  <si>
+    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2022</t>
   </si>
   <si>
     <r>
@@ -183,8 +181,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.6.</t>
+      <t xml:space="preserve"> 4.2.3</t>
     </r>
+  </si>
+  <si>
+    <t>Tabel 4.2.4</t>
   </si>
   <si>
     <r>
@@ -199,38 +200,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.7.</t>
+      <t xml:space="preserve"> 4.2.5</t>
     </r>
-  </si>
-  <si>
-    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2021</t>
-  </si>
-  <si>
-    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2021</t>
-  </si>
-  <si>
-    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2021</t>
-  </si>
-  <si>
-    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2021</t>
-  </si>
-  <si>
-    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2021</t>
-  </si>
-  <si>
-    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2021</t>
-  </si>
-  <si>
-    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2021</t>
-  </si>
-  <si>
-    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan Baula. 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan Baula, 2021</t>
   </si>
   <si>
     <r>
@@ -245,11 +216,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.6.</t>
+      <t xml:space="preserve"> 4.2.6</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan Baula, 2021</t>
   </si>
   <si>
     <r>
@@ -264,23 +232,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.7.</t>
+      <t xml:space="preserve"> 4.2.3</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan Baula, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Medical Personnel by Kelurahan/ Village in Baula Subdistrict, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Immunized Babies by Types of Immunization and Kelurahan/Village Baula Subdistrict, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in Baula Subdistrict, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in Baula Subdistrict, 2021</t>
+    <t xml:space="preserve">Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan Baula. 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan Baula, 2022</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4.2.5</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan Baula, 2022</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4.2.6</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan Baula, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Medical Personnel by Kelurahan/ Village in Baula Subdistrict, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Immunized Babies by Types of Immunization and Kelurahan/Village Baula Subdistrict, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in Baula Subdistrict, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in Baula Subdistrict, 2022</t>
   </si>
   <si>
     <t xml:space="preserve">001 LONGORI</t>
@@ -901,7 +910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -927,10 +938,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1">
       <c r="A1" t="s" s="20">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s" s="40">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -938,20 +949,20 @@
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
       <c r="H1" t="s" s="22">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s" s="36">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="P1" t="s" s="21">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" t="s" s="37">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" s="37"/>
       <c r="S1" s="37"/>
@@ -959,10 +970,10 @@
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
       <c r="W1" t="s" s="20">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X1" t="s" s="38">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="38"/>
       <c r="Z1" s="38"/>
@@ -972,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s" s="39">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -983,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s" s="48">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
@@ -993,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s" s="49">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" s="49"/>
       <c r="S2" s="49"/>
@@ -1004,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="s" s="48">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="48"/>
       <c r="Z2" s="48"/>
@@ -1027,55 +1038,55 @@
       </c>
       <c r="B4" s="45"/>
       <c r="C4" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s" s="10">
         <v>5</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="E4" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="F4" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="G4" t="s" s="10">
         <v>8</v>
-      </c>
-      <c r="G4" t="s" s="10">
-        <v>9</v>
       </c>
       <c r="H4" t="s" s="46">
         <v>1</v>
       </c>
       <c r="I4" s="45"/>
       <c r="J4" t="s" s="24">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="K4" t="s" s="24">
+      <c r="L4" t="s" s="24">
         <v>11</v>
       </c>
-      <c r="L4" t="s" s="24">
+      <c r="M4" t="s" s="9">
         <v>12</v>
-      </c>
-      <c r="M4" t="s" s="9">
-        <v>13</v>
       </c>
       <c r="P4" t="s" s="47">
         <v>1</v>
       </c>
       <c r="Q4" s="47"/>
       <c r="R4" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s" s="9">
         <v>14</v>
-      </c>
-      <c r="S4" t="s" s="9">
-        <v>15</v>
       </c>
       <c r="W4" t="s" s="47">
         <v>1</v>
       </c>
       <c r="X4" s="47"/>
       <c r="Y4" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="s" s="9">
         <v>16</v>
-      </c>
-      <c r="Z4" t="s" s="9">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="29.25" customHeight="1" thickBot="1">
@@ -1084,19 +1095,19 @@
       </c>
       <c r="B5" s="41"/>
       <c r="C5" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="E5" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="F5" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="G5" t="s" s="11">
         <v>21</v>
-      </c>
-      <c r="G5" t="s" s="11">
-        <v>22</v>
       </c>
       <c r="H5" t="s" s="42">
         <v>2</v>
@@ -1106,27 +1117,27 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" t="s" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s" s="44">
         <v>2</v>
       </c>
       <c r="Q5" s="44"/>
       <c r="R5" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="S5" t="s" s="12">
         <v>24</v>
-      </c>
-      <c r="S5" t="s" s="12">
-        <v>25</v>
       </c>
       <c r="W5" t="s" s="44">
         <v>2</v>
       </c>
       <c r="X5" s="44"/>
       <c r="Y5" t="s" s="12">
+        <v>25</v>
+      </c>
+      <c r="Z5" t="s" s="12">
         <v>26</v>
-      </c>
-      <c r="Z5" t="s" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
@@ -1188,7 +1199,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s" s="35">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="4"/>
@@ -1197,7 +1208,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" t="s" s="35">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="4"/>
@@ -1205,13 +1216,13 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="P7" t="s" s="35">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="35"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="W7" t="s" s="35">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X7" s="35"/>
       <c r="Y7" s="4"/>
@@ -1219,7 +1230,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s" s="30">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="4"/>
@@ -1228,7 +1239,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" t="s" s="30">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="4"/>
@@ -1236,13 +1247,13 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="P8" t="s" s="30">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="W8" t="s" s="30">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X8" s="30"/>
       <c r="Y8" s="4"/>
@@ -1250,7 +1261,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s" s="30">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="4"/>
@@ -1259,7 +1270,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" t="s" s="30">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="4"/>
@@ -1267,13 +1278,13 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="P9" t="s" s="30">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="W9" t="s" s="30">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X9" s="30"/>
       <c r="Y9" s="4"/>
@@ -1281,7 +1292,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" t="s" s="30">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="4"/>
@@ -1290,7 +1301,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" t="s" s="30">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="4"/>
@@ -1298,13 +1309,13 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="P10" t="s" s="30">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="30"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="W10" t="s" s="30">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X10" s="30"/>
       <c r="Y10" s="4"/>
@@ -1312,7 +1323,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s" s="30">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="4"/>
@@ -1321,7 +1332,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" t="s" s="30">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="4"/>
@@ -1329,13 +1340,13 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="P11" t="s" s="30">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="30"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="W11" t="s" s="30">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X11" s="30"/>
       <c r="Y11" s="4"/>
@@ -1343,7 +1354,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s" s="30">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="4"/>
@@ -1352,7 +1363,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" t="s" s="30">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="4"/>
@@ -1360,13 +1371,13 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="P12" t="s" s="30">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="30"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="W12" t="s" s="30">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X12" s="30"/>
       <c r="Y12" s="4"/>
@@ -1374,7 +1385,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s" s="30">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="4"/>
@@ -1383,7 +1394,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" t="s" s="30">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="4"/>
@@ -1391,13 +1402,13 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="P13" t="s" s="30">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="30"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="W13" t="s" s="30">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X13" s="30"/>
       <c r="Y13" s="4"/>
@@ -1405,7 +1416,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s" s="30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="4"/>
@@ -1414,7 +1425,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" t="s" s="30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="4"/>
@@ -1422,13 +1433,13 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="P14" t="s" s="30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="30"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="W14" t="s" s="30">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X14" s="30"/>
       <c r="Y14" s="4"/>
@@ -1436,7 +1447,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s" s="30">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="4"/>
@@ -1445,7 +1456,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" t="s" s="30">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="4"/>
@@ -1453,13 +1464,13 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="P15" t="s" s="30">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="30"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="W15" t="s" s="30">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X15" s="30"/>
       <c r="Y15" s="4"/>
@@ -1467,7 +1478,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s" s="30">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="4"/>
@@ -1476,7 +1487,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" t="s" s="30">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="4"/>
@@ -1484,13 +1495,13 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="P16" t="s" s="30">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="30"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="W16" t="s" s="30">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X16" s="30"/>
       <c r="Y16" s="4"/>
@@ -1774,67 +1785,41 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" thickBot="1">
       <c r="A29" t="s" s="31">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="31"/>
-      <c r="C29" s="5">
-        <f>SUM(C7:C28)</f>
-      </c>
-      <c r="D29" s="5">
-        <f t="shared" ref="D29:F29" si="0">SUM(D7:D28)</f>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="0"/>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
       <c r="H29" t="s" s="32">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I29" s="32"/>
-      <c r="J29" s="5">
-        <f>SUM(J7:J28)</f>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" ref="K29:M29" si="1">SUM(K7:K28)</f>
-      </c>
-      <c r="L29" s="5">
-        <f t="shared" si="1"/>
-      </c>
-      <c r="M29" s="5">
-        <f t="shared" si="1"/>
-      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="P29" t="s" s="31">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="31"/>
-      <c r="R29" s="5">
-        <f>SUM(R7:R28)</f>
-      </c>
-      <c r="S29" s="5">
-        <f>SUM(S7:S28)</f>
-      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
       <c r="W29" t="s" s="31">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X29" s="31"/>
-      <c r="Y29" s="5">
-        <f>SUM(Y7:Y28)</f>
-      </c>
-      <c r="Z29" s="5">
-        <f>SUM(Z7:Z28)</f>
-      </c>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="1:26" ht="20.100000000000001" customHeight="1">
       <c r="A30" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s" s="23">
         <v>28</v>
-      </c>
-      <c r="B30" t="s" s="23">
-        <v>29</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -1842,7 +1827,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="1"/>
@@ -1850,13 +1835,13 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="P30" t="s" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="W30" t="s" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="1"/>

--- a/031 Baula/Puskesmas 031 Baula.xlsx
+++ b/031 Baula/Puskesmas 031 Baula.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\kcda-blanko-generator\template\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda-blanko-generator\template\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481223D-E29C-4010-B15F-FEE266DD868B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Bab 4" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -145,30 +144,6 @@
     <t>Kecamatan {kec}</t>
   </si>
   <si>
-    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2022</t>
-  </si>
-  <si>
-    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2022</t>
-  </si>
-  <si>
-    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2022</t>
-  </si>
-  <si>
-    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2022</t>
-  </si>
-  <si>
-    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2022</t>
-  </si>
-  <si>
-    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2022</t>
-  </si>
-  <si>
-    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2022</t>
-  </si>
-  <si>
-    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2022</t>
-  </si>
-  <si>
     <r>
       <rPr/>
       <t>Tabel</t>
@@ -220,6 +195,30 @@
     </r>
   </si>
   <si>
+    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2023</t>
+  </si>
+  <si>
+    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2023</t>
+  </si>
+  <si>
+    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2023</t>
+  </si>
+  <si>
+    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2023</t>
+  </si>
+  <si>
+    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2023</t>
+  </si>
+  <si>
+    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2023</t>
+  </si>
+  <si>
+    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2023</t>
+  </si>
+  <si>
+    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2023</t>
+  </si>
+  <si>
     <r>
       <rPr/>
       <t>Tabel</t>
@@ -236,10 +235,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan Baula. 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan Baula, 2022</t>
+    <t xml:space="preserve">Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan Baula. 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan Baula, 2023</t>
   </si>
   <si>
     <r>
@@ -258,7 +257,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan Baula, 2022</t>
+    <t xml:space="preserve">Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan Baula, 2023</t>
   </si>
   <si>
     <r>
@@ -277,19 +276,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan Baula, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Medical Personnel by Kelurahan/ Village in Baula Subdistrict, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Immunized Babies by Types of Immunization and Kelurahan/Village Baula Subdistrict, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in Baula Subdistrict, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in Baula Subdistrict, 2022</t>
+    <t xml:space="preserve">Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan Baula, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Medical Personnel by Kelurahan/ Village in Baula Subdistrict, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Immunized Babies by Types of Immunization and Kelurahan/Village Baula Subdistrict, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in Baula Subdistrict, 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in Baula Subdistrict, 2023</t>
   </si>
   <si>
     <t xml:space="preserve">001 LONGORI</t>
@@ -328,7 +327,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
@@ -554,6 +553,64 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -566,72 +623,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,11 +906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:I27"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -940,85 +939,85 @@
       <c r="A1" t="s" s="20">
         <v>43</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" t="s" s="27">
         <v>44</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" t="s" s="22">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s" s="36">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s" s="23">
         <v>45</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
       <c r="P1" t="s" s="21">
         <v>46</v>
       </c>
-      <c r="Q1" t="s" s="37">
+      <c r="Q1" t="s" s="24">
         <v>47</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
       <c r="W1" t="s" s="20">
         <v>48</v>
       </c>
-      <c r="X1" t="s" s="38">
+      <c r="X1" t="s" s="25">
         <v>49</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="26.1" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="39">
+      <c r="B2" t="s" s="26">
         <v>50</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" t="s" s="17">
         <v>0</v>
       </c>
-      <c r="I2" t="s" s="48">
+      <c r="I2" t="s" s="35">
         <v>51</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
       <c r="P2" t="s" s="16">
         <v>0</v>
       </c>
-      <c r="Q2" t="s" s="49">
+      <c r="Q2" t="s" s="36">
         <v>52</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
       <c r="W2" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="X2" t="s" s="48">
+      <c r="X2" t="s" s="35">
         <v>53</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="26.1" customHeight="1" thickBot="1">
       <c r="A3" s="15"/>
@@ -1033,10 +1032,10 @@
       <c r="X3" s="15"/>
     </row>
     <row r="4" spans="1:26" ht="39" customHeight="1">
-      <c r="A4" t="s" s="45">
+      <c r="A4" t="s" s="32">
         <v>1</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="32"/>
       <c r="C4" t="s" s="10">
         <v>4</v>
       </c>
@@ -1052,36 +1051,36 @@
       <c r="G4" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="H4" t="s" s="46">
+      <c r="H4" t="s" s="33">
         <v>1</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" t="s" s="24">
+      <c r="I4" s="32"/>
+      <c r="J4" t="s" s="44">
         <v>9</v>
       </c>
-      <c r="K4" t="s" s="24">
+      <c r="K4" t="s" s="44">
         <v>10</v>
       </c>
-      <c r="L4" t="s" s="24">
+      <c r="L4" t="s" s="44">
         <v>11</v>
       </c>
       <c r="M4" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="P4" t="s" s="47">
+      <c r="P4" t="s" s="34">
         <v>1</v>
       </c>
-      <c r="Q4" s="47"/>
+      <c r="Q4" s="34"/>
       <c r="R4" t="s" s="9">
         <v>13</v>
       </c>
       <c r="S4" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="W4" t="s" s="47">
+      <c r="W4" t="s" s="34">
         <v>1</v>
       </c>
-      <c r="X4" s="47"/>
+      <c r="X4" s="34"/>
       <c r="Y4" t="s" s="9">
         <v>15</v>
       </c>
@@ -1090,10 +1089,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A5" t="s" s="41">
+      <c r="A5" t="s" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="28"/>
       <c r="C5" t="s" s="11">
         <v>17</v>
       </c>
@@ -1109,30 +1108,30 @@
       <c r="G5" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="H5" t="s" s="42">
+      <c r="H5" t="s" s="29">
         <v>2</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
       <c r="M5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="P5" t="s" s="44">
+      <c r="P5" t="s" s="31">
         <v>2</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="31"/>
       <c r="R5" t="s" s="12">
         <v>23</v>
       </c>
       <c r="S5" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="W5" t="s" s="44">
+      <c r="W5" t="s" s="31">
         <v>2</v>
       </c>
-      <c r="X5" s="44"/>
+      <c r="X5" s="31"/>
       <c r="Y5" t="s" s="12">
         <v>25</v>
       </c>
@@ -1141,10 +1140,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A6" s="33">
+      <c r="A6" s="38">
         <v>-1</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3">
         <v>-2</v>
       </c>
@@ -1160,10 +1159,10 @@
       <c r="G6" s="3">
         <v>-6</v>
       </c>
-      <c r="H6" t="s" s="34">
+      <c r="H6" t="s" s="39">
         <v>3</v>
       </c>
-      <c r="I6" s="33"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="3">
         <v>-2</v>
       </c>
@@ -1176,20 +1175,20 @@
       <c r="M6" s="3">
         <v>-5</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="38">
         <v>-1</v>
       </c>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="38"/>
       <c r="R6" s="3">
         <v>-2</v>
       </c>
       <c r="S6" s="3">
         <v>-3</v>
       </c>
-      <c r="W6" s="33">
+      <c r="W6" s="38">
         <v>-1</v>
       </c>
-      <c r="X6" s="33"/>
+      <c r="X6" s="38"/>
       <c r="Y6" s="3">
         <v>-2</v>
       </c>
@@ -1198,619 +1197,619 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" t="s" s="35">
+      <c r="A7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" t="s" s="35">
+      <c r="H7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="P7" t="s" s="35">
+      <c r="P7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="Q7" s="35"/>
+      <c r="Q7" s="40"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
-      <c r="W7" t="s" s="35">
+      <c r="W7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="X7" s="35"/>
+      <c r="X7" s="40"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" t="s" s="30">
+      <c r="A8" t="s" s="37">
         <v>55</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" t="s" s="30">
+      <c r="H8" t="s" s="37">
         <v>55</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="P8" t="s" s="30">
+      <c r="P8" t="s" s="37">
         <v>55</v>
       </c>
-      <c r="Q8" s="30"/>
+      <c r="Q8" s="37"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="W8" t="s" s="30">
+      <c r="W8" t="s" s="37">
         <v>55</v>
       </c>
-      <c r="X8" s="30"/>
+      <c r="X8" s="37"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" t="s" s="30">
+      <c r="A9" t="s" s="37">
         <v>56</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" t="s" s="30">
+      <c r="H9" t="s" s="37">
         <v>56</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="P9" t="s" s="30">
+      <c r="P9" t="s" s="37">
         <v>56</v>
       </c>
-      <c r="Q9" s="30"/>
+      <c r="Q9" s="37"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="W9" t="s" s="30">
+      <c r="W9" t="s" s="37">
         <v>56</v>
       </c>
-      <c r="X9" s="30"/>
+      <c r="X9" s="37"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" t="s" s="30">
+      <c r="A10" t="s" s="37">
         <v>57</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" t="s" s="30">
+      <c r="H10" t="s" s="37">
         <v>57</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="P10" t="s" s="30">
+      <c r="P10" t="s" s="37">
         <v>57</v>
       </c>
-      <c r="Q10" s="30"/>
+      <c r="Q10" s="37"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="W10" t="s" s="30">
+      <c r="W10" t="s" s="37">
         <v>57</v>
       </c>
-      <c r="X10" s="30"/>
+      <c r="X10" s="37"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" t="s" s="30">
+      <c r="A11" t="s" s="37">
         <v>58</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" t="s" s="30">
+      <c r="H11" t="s" s="37">
         <v>58</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="P11" t="s" s="30">
+      <c r="P11" t="s" s="37">
         <v>58</v>
       </c>
-      <c r="Q11" s="30"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-      <c r="W11" t="s" s="30">
+      <c r="W11" t="s" s="37">
         <v>58</v>
       </c>
-      <c r="X11" s="30"/>
+      <c r="X11" s="37"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" t="s" s="30">
+      <c r="A12" t="s" s="37">
         <v>59</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" t="s" s="30">
+      <c r="H12" t="s" s="37">
         <v>59</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="P12" t="s" s="30">
+      <c r="P12" t="s" s="37">
         <v>59</v>
       </c>
-      <c r="Q12" s="30"/>
+      <c r="Q12" s="37"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="W12" t="s" s="30">
+      <c r="W12" t="s" s="37">
         <v>59</v>
       </c>
-      <c r="X12" s="30"/>
+      <c r="X12" s="37"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" t="s" s="30">
+      <c r="A13" t="s" s="37">
         <v>60</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" t="s" s="30">
+      <c r="H13" t="s" s="37">
         <v>60</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="P13" t="s" s="30">
+      <c r="P13" t="s" s="37">
         <v>60</v>
       </c>
-      <c r="Q13" s="30"/>
+      <c r="Q13" s="37"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="W13" t="s" s="30">
+      <c r="W13" t="s" s="37">
         <v>60</v>
       </c>
-      <c r="X13" s="30"/>
+      <c r="X13" s="37"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" t="s" s="30">
+      <c r="A14" t="s" s="37">
         <v>61</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" t="s" s="30">
+      <c r="H14" t="s" s="37">
         <v>61</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="P14" t="s" s="30">
+      <c r="P14" t="s" s="37">
         <v>61</v>
       </c>
-      <c r="Q14" s="30"/>
+      <c r="Q14" s="37"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="W14" t="s" s="30">
+      <c r="W14" t="s" s="37">
         <v>61</v>
       </c>
-      <c r="X14" s="30"/>
+      <c r="X14" s="37"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" t="s" s="30">
+      <c r="A15" t="s" s="37">
         <v>62</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" t="s" s="30">
+      <c r="H15" t="s" s="37">
         <v>62</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="P15" t="s" s="30">
+      <c r="P15" t="s" s="37">
         <v>62</v>
       </c>
-      <c r="Q15" s="30"/>
+      <c r="Q15" s="37"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-      <c r="W15" t="s" s="30">
+      <c r="W15" t="s" s="37">
         <v>62</v>
       </c>
-      <c r="X15" s="30"/>
+      <c r="X15" s="37"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" t="s" s="30">
+      <c r="A16" t="s" s="37">
         <v>63</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" t="s" s="30">
+      <c r="H16" t="s" s="37">
         <v>63</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="P16" t="s" s="30">
+      <c r="P16" t="s" s="37">
         <v>63</v>
       </c>
-      <c r="Q16" s="30"/>
+      <c r="Q16" s="37"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="W16" t="s" s="30">
+      <c r="W16" t="s" s="37">
         <v>63</v>
       </c>
-      <c r="X16" s="30"/>
+      <c r="X16" s="37"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="29"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="29"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="29"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="29"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="29"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="29"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="29"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A29" t="s" s="31">
+      <c r="A29" t="s" s="48">
         <v>64</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="8"/>
-      <c r="H29" t="s" s="32">
+      <c r="H29" t="s" s="49">
         <v>64</v>
       </c>
-      <c r="I29" s="32"/>
+      <c r="I29" s="49"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="P29" t="s" s="31">
+      <c r="P29" t="s" s="48">
         <v>64</v>
       </c>
-      <c r="Q29" s="31"/>
+      <c r="Q29" s="48"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="W29" t="s" s="31">
+      <c r="W29" t="s" s="48">
         <v>64</v>
       </c>
-      <c r="X29" s="31"/>
+      <c r="X29" s="48"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
@@ -1818,14 +1817,14 @@
       <c r="A30" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="B30" t="s" s="23">
+      <c r="B30" t="s" s="43">
         <v>28</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
       <c r="H30" t="s">
         <v>29</v>
       </c>
@@ -1849,98 +1848,6 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -1965,6 +1872,98 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="W27:X27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="X2:Z2"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/031 Baula/Puskesmas 031 Baula.xlsx
+++ b/031 Baula/Puskesmas 031 Baula.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda-blanko-generator\template\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msh/Documents/projects/kcda-blanko-generator/template/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EADD788-B599-F54E-92BC-5FB384D43DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="0"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="29920" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Bab 4" sheetId="4" r:id="rId1"/>
@@ -195,28 +196,28 @@
     </r>
   </si>
   <si>
-    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2023</t>
-  </si>
-  <si>
-    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2023</t>
-  </si>
-  <si>
-    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2023</t>
-  </si>
-  <si>
-    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2023</t>
-  </si>
-  <si>
-    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2023</t>
-  </si>
-  <si>
-    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2023</t>
-  </si>
-  <si>
-    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2023</t>
-  </si>
-  <si>
-    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2023</t>
+    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2024</t>
+  </si>
+  <si>
+    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2024</t>
+  </si>
+  <si>
+    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2024</t>
+  </si>
+  <si>
+    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2024</t>
+  </si>
+  <si>
+    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2024</t>
+  </si>
+  <si>
+    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2024</t>
+  </si>
+  <si>
+    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2024</t>
+  </si>
+  <si>
+    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2024</t>
   </si>
   <si>
     <r>
@@ -235,10 +236,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan Baula. 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan Baula, 2023</t>
+    <t xml:space="preserve">Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan Baula. 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan Baula, 2024</t>
   </si>
   <si>
     <r>
@@ -257,7 +258,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan Baula, 2023</t>
+    <t xml:space="preserve">Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan Baula, 2024</t>
   </si>
   <si>
     <r>
@@ -276,19 +277,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan Baula, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Medical Personnel by Kelurahan/ Village in Baula Subdistrict, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Immunized Babies by Types of Immunization and Kelurahan/Village Baula Subdistrict, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in Baula Subdistrict, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in Baula Subdistrict, 2023</t>
+    <t xml:space="preserve">Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan Baula, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Medical Personnel by Kelurahan/ Village in Baula Subdistrict, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Immunized Babies by Types of Immunization and Kelurahan/Village Baula Subdistrict, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in Baula Subdistrict, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in Baula Subdistrict, 2024</t>
   </si>
   <si>
     <t xml:space="preserve">001 LONGORI</t>
@@ -327,11 +328,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts>
+  <fonts x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,7 +498,6 @@
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -513,7 +513,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -532,7 +532,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -548,11 +548,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -574,7 +607,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -594,43 +627,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,948 +902,1030 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="24.5" customWidth="1"/>
+    <col min="23" max="23" width="10.5" customWidth="1"/>
     <col min="25" max="25" width="18" customWidth="1"/>
     <col min="26" max="26" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A1" t="s" s="20">
+    <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s" s="19">
         <v>43</v>
       </c>
-      <c r="B1" t="s" s="27">
+      <c r="B1" t="s" s="37">
         <v>44</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" t="s" s="22">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" t="s" s="19">
         <v>32</v>
       </c>
-      <c r="I1" t="s" s="23">
+      <c r="I1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="P1" t="s" s="21">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="P1" t="s" s="20">
         <v>46</v>
       </c>
-      <c r="Q1" t="s" s="24">
+      <c r="Q1" t="s" s="34">
         <v>47</v>
       </c>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" t="s" s="20">
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" t="s" s="19">
         <v>48</v>
       </c>
-      <c r="X1" t="s" s="25">
+      <c r="X1" t="s" s="35">
         <v>49</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A2" t="s" s="2">
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+    </row>
+    <row r="2" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="26">
+      <c r="B2" t="s" s="36">
         <v>50</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" t="s" s="17">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" t="s" s="16">
         <v>0</v>
       </c>
-      <c r="I2" t="s" s="35">
+      <c r="I2" t="s" s="45">
         <v>51</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="P2" t="s" s="16">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="P2" t="s" s="15">
         <v>0</v>
       </c>
-      <c r="Q2" t="s" s="36">
+      <c r="Q2" t="s" s="46">
         <v>52</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" t="s" s="2">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="X2" t="s" s="35">
+      <c r="X2" t="s" s="45">
         <v>53</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-    </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="26.1" customHeight="1" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="H3"/>
-      <c r="I3" s="15"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-    </row>
-    <row r="4" spans="1:26" ht="39" customHeight="1">
-      <c r="A4" t="s" s="32">
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+    </row>
+    <row r="3" spans="1:26" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+    </row>
+    <row r="4" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" s="42">
         <v>1</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" t="s" s="10">
+      <c r="B4" s="42"/>
+      <c r="C4" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D4" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" t="s" s="9">
         <v>6</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="G4" t="s" s="10">
+      <c r="G4" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="H4" t="s" s="33">
+      <c r="H4" t="s" s="43">
         <v>1</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" t="s" s="44">
+      <c r="I4" s="42"/>
+      <c r="J4" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="K4" t="s" s="44">
+      <c r="K4" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="L4" t="s" s="44">
+      <c r="L4" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="M4" t="s" s="9">
+      <c r="M4" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="P4" t="s" s="34">
+      <c r="P4" t="s" s="44">
         <v>1</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" t="s" s="9">
+      <c r="Q4" s="44"/>
+      <c r="R4" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="S4" t="s" s="9">
+      <c r="S4" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="W4" t="s" s="34">
+      <c r="W4" t="s" s="44">
         <v>1</v>
       </c>
-      <c r="X4" s="34"/>
-      <c r="Y4" t="s" s="9">
+      <c r="X4" s="44"/>
+      <c r="Y4" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="Z4" t="s" s="9">
+      <c r="Z4" t="s" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A5" t="s" s="28">
+    <row r="5" spans="1:26" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="38">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" t="s" s="11">
+      <c r="B5" s="38"/>
+      <c r="C5" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="D5" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="E5" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="F5" t="s" s="11">
+      <c r="F5" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="G5" t="s" s="11">
+      <c r="G5" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="H5" t="s" s="29">
+      <c r="H5" t="s" s="39">
         <v>2</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" t="s" s="12">
+      <c r="I5" s="40"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="P5" t="s" s="31">
+      <c r="P5" t="s" s="41">
         <v>2</v>
       </c>
-      <c r="Q5" s="31"/>
-      <c r="R5" t="s" s="12">
+      <c r="Q5" s="41"/>
+      <c r="R5" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="S5" t="s" s="12">
+      <c r="S5" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="W5" t="s" s="31">
+      <c r="W5" t="s" s="41">
         <v>2</v>
       </c>
-      <c r="X5" s="31"/>
-      <c r="Y5" t="s" s="12">
+      <c r="X5" s="41"/>
+      <c r="Y5" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="Z5" t="s" s="12">
+      <c r="Z5" t="s" s="11">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A6" s="38">
+    <row r="6" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <v>-1</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="3">
+      <c r="B6" s="30"/>
+      <c r="C6" s="2">
         <v>-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>-3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>-4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>-5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>-6</v>
       </c>
-      <c r="H6" t="s" s="39">
+      <c r="H6" t="s" s="31">
         <v>3</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="3">
+      <c r="I6" s="30"/>
+      <c r="J6" s="2">
         <v>-2</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>-3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>-4</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-5</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6" s="30">
         <v>-1</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="3">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="2">
         <v>-2</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>-3</v>
       </c>
-      <c r="W6" s="38">
+      <c r="W6" s="30">
         <v>-1</v>
       </c>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="3">
+      <c r="X6" s="30"/>
+      <c r="Y6" s="2">
         <v>-2</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2">
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" t="s" s="40">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s" s="32">
         <v>54</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" t="s" s="40">
+      <c r="B7" s="32"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" t="s" s="32">
         <v>54</v>
       </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="P7" t="s" s="40">
+      <c r="I7" s="32"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="P7" t="s" s="32">
         <v>54</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="W7" t="s" s="40">
+      <c r="Q7" s="32"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="W7" t="s" s="32">
         <v>54</v>
       </c>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" t="s" s="37">
+      <c r="X7" s="32"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s" s="27">
         <v>55</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" t="s" s="37">
+      <c r="B8" s="27"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s" s="27">
         <v>55</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="P8" t="s" s="37">
+      <c r="I8" s="27"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="P8" t="s" s="27">
         <v>55</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="W8" t="s" s="37">
+      <c r="Q8" s="27"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="W8" t="s" s="27">
         <v>55</v>
       </c>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" t="s" s="37">
+      <c r="X8" s="27"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s" s="27">
         <v>56</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" t="s" s="37">
+      <c r="B9" s="27"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" t="s" s="27">
         <v>56</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="P9" t="s" s="37">
+      <c r="I9" s="27"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="P9" t="s" s="27">
         <v>56</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="W9" t="s" s="37">
+      <c r="Q9" s="27"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="W9" t="s" s="27">
         <v>56</v>
       </c>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" t="s" s="37">
+      <c r="X9" s="27"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s" s="27">
         <v>57</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" t="s" s="37">
+      <c r="B10" s="27"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" t="s" s="27">
         <v>57</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="P10" t="s" s="37">
+      <c r="I10" s="27"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="P10" t="s" s="27">
         <v>57</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="W10" t="s" s="37">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="W10" t="s" s="27">
         <v>57</v>
       </c>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" t="s" s="37">
+      <c r="X10" s="27"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s" s="27">
         <v>58</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" t="s" s="37">
+      <c r="B11" s="27"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" t="s" s="27">
         <v>58</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="P11" t="s" s="37">
+      <c r="I11" s="27"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="P11" t="s" s="27">
         <v>58</v>
       </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="W11" t="s" s="37">
+      <c r="Q11" s="27"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="W11" t="s" s="27">
         <v>58</v>
       </c>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" t="s" s="37">
+      <c r="X11" s="27"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s" s="27">
         <v>59</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" t="s" s="37">
+      <c r="B12" s="27"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" t="s" s="27">
         <v>59</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="P12" t="s" s="37">
+      <c r="I12" s="27"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="P12" t="s" s="27">
         <v>59</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="W12" t="s" s="37">
+      <c r="Q12" s="27"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="W12" t="s" s="27">
         <v>59</v>
       </c>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" t="s" s="37">
+      <c r="X12" s="27"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s" s="27">
         <v>60</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" t="s" s="37">
+      <c r="B13" s="27"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" t="s" s="27">
         <v>60</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="P13" t="s" s="37">
+      <c r="I13" s="27"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="P13" t="s" s="27">
         <v>60</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="W13" t="s" s="37">
+      <c r="Q13" s="27"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="W13" t="s" s="27">
         <v>60</v>
       </c>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" t="s" s="37">
+      <c r="X13" s="27"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s" s="27">
         <v>61</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" t="s" s="37">
+      <c r="B14" s="27"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" t="s" s="27">
         <v>61</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="P14" t="s" s="37">
+      <c r="I14" s="27"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="P14" t="s" s="27">
         <v>61</v>
       </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="W14" t="s" s="37">
+      <c r="Q14" s="27"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="W14" t="s" s="27">
         <v>61</v>
       </c>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" t="s" s="37">
+      <c r="X14" s="27"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s" s="27">
         <v>62</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" t="s" s="37">
+      <c r="B15" s="27"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" t="s" s="27">
         <v>62</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="P15" t="s" s="37">
+      <c r="I15" s="27"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="P15" t="s" s="27">
         <v>62</v>
       </c>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="W15" t="s" s="37">
+      <c r="Q15" s="27"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="W15" t="s" s="27">
         <v>62</v>
       </c>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" t="s" s="37">
+      <c r="X15" s="27"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s" s="27">
         <v>63</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" t="s" s="37">
+      <c r="B16" s="27"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" t="s" s="27">
         <v>63</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="P16" t="s" s="37">
+      <c r="I16" s="27"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="P16" t="s" s="27">
         <v>63</v>
       </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="W16" t="s" s="37">
+      <c r="Q16" s="27"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="W16" t="s" s="27">
         <v>63</v>
       </c>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A29" t="s" s="48">
+      <c r="X16" s="27"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s" s="28">
         <v>64</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" t="s" s="49">
+      <c r="B29" s="28"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" t="s" s="29">
         <v>64</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="P29" t="s" s="48">
+      <c r="I29" s="29"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="P29" t="s" s="28">
         <v>64</v>
       </c>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="W29" t="s" s="48">
+      <c r="Q29" s="28"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="W29" t="s" s="28">
         <v>64</v>
       </c>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-    </row>
-    <row r="30" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="A30" t="s" s="6">
+      <c r="X29" s="28"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="B30" t="s" s="43">
+      <c r="B30" t="s" s="21">
         <v>28</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
       <c r="H30" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="P30" t="s" s="7">
+      <c r="I30" s="6"/>
+      <c r="P30" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="W30" t="s" s="7">
+      <c r="Q30" s="6"/>
+      <c r="W30" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="X30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="A24:B24"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
@@ -1872,98 +1950,6 @@
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="W27:X27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="X2:Z2"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
